--- a/routes/proAPI/pro.xlsx
+++ b/routes/proAPI/pro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17860"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="1094">
   <si>
     <t>category</t>
   </si>
@@ -332,34 +332,7 @@
 产品名称：Dior/迪奥 魅惑釉唇膏品牌: Dior/迪奥Dior/迪奥单品: 魅惑釉唇膏产地: 法国颜色分类: 740 CLUB 可乐部 漆光枫叶脏橘 847 WESTWOOD 漆光砖红 857 HOLLYWOOD RED 好莱坞大咖 漆光红酒色 744 PARTY RED 花蝴蝶 漆光波普橘红524 COOLISTA 漆光肉桂奶茶 320 NUDE WAVE 漆光裸粉 457 PALM BEACH 鸡尾酒 漆光西柚 550 TEASE 小心计 漆光樱花色 747 DIOR SUNSET 漆光枫叶橘 764 DIOR RODEO 漆光桃粉 867 SULFUROUS 红酒 漆光梅子 554 WEST COAST 日光浴 漆光橙子汽水 877 TURN ME DIOR 给我迪奥 漆光玫红批准文号: 国妆备进字J20182166功效: 提升气色 不易脱色规格类型: 正常规格是否为特殊用途化妆品: 否产品类别: 普通类限期使用日期范围: 2022-12-01至2022</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://img.alicdn.com/imgextra/https://img.alicdn.com/imgextra/i4/2207959261164/O1CN017HZL7g1KT9ePJtXHi_!!2207959261164.jpg_430x430q90.jpg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://img.alicdn.com/imgextra/https://img.alicdn.com/imgextra/i2/2207959261164/O1CN01EqmV401KT9ertC9HL_!!2207959261164.jpg_430x430q90.jpg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://img.alicdn.com/imgextra/https://img.alicdn.com/imgextra/i3/2207959261164/O1CN01pgHTpX1KT9ePJuoIA_!!2207959261164.jpg_430x430q90.jpg</t>
-    </r>
+    <t>https://t15.baidu.com/it/u=3677393265,307861059&amp;fm=224&amp;app=112&amp;size=h200&amp;n=0&amp;f=JPEG&amp;fmt=auto?sec=1685466000&amp;t=cc3bc7325327ee7ce95198dcbe9777aa</t>
   </si>
   <si>
     <t>卡姿兰</t>
@@ -8869,10 +8842,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -8901,6 +8874,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -8908,7 +8889,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8923,24 +8918,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8952,7 +8940,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -8967,15 +8955,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -8992,7 +8981,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9014,38 +9018,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9060,13 +9033,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9078,7 +9063,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9090,7 +9159,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9108,73 +9189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9186,61 +9201,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9254,11 +9227,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9328,6 +9307,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -9336,172 +9324,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9514,60 +9487,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -9861,38 +9837,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AB151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.80357142857143" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.1339285714286" customWidth="1"/>
-    <col min="3" max="3" width="24.6964285714286" customWidth="1"/>
-    <col min="4" max="4" width="22.0178571428571" customWidth="1"/>
-    <col min="5" max="5" width="15.4642857142857" customWidth="1"/>
-    <col min="6" max="6" width="10.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="7.71428571428571" customWidth="1"/>
-    <col min="8" max="8" width="65.1785714285714" customWidth="1"/>
-    <col min="9" max="9" width="7.71428571428571" customWidth="1"/>
-    <col min="10" max="10" width="13.7142857142857" customWidth="1"/>
-    <col min="11" max="11" width="8.92857142857143" customWidth="1"/>
-    <col min="12" max="12" width="12.8928571428571" customWidth="1"/>
-    <col min="13" max="13" width="16.2678571428571" customWidth="1"/>
-    <col min="14" max="14" width="16.8660714285714" customWidth="1"/>
-    <col min="15" max="15" width="14.9375" customWidth="1"/>
+    <col min="1" max="1" width="9.14166666666667" customWidth="1"/>
+    <col min="2" max="2" width="13.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="24.7" customWidth="1"/>
+    <col min="4" max="4" width="22.0166666666667" customWidth="1"/>
+    <col min="5" max="5" width="15.4666666666667" customWidth="1"/>
+    <col min="6" max="6" width="10.8583333333333" customWidth="1"/>
+    <col min="7" max="7" width="7.71666666666667" customWidth="1"/>
+    <col min="8" max="8" width="65.175" customWidth="1"/>
+    <col min="9" max="9" width="7.71666666666667" customWidth="1"/>
+    <col min="10" max="10" width="13.7166666666667" customWidth="1"/>
+    <col min="11" max="11" width="8.925" customWidth="1"/>
+    <col min="12" max="12" width="12.8916666666667" customWidth="1"/>
+    <col min="13" max="13" width="16.2666666666667" customWidth="1"/>
+    <col min="14" max="14" width="16.8666666666667" customWidth="1"/>
+    <col min="15" max="15" width="14.9416666666667" customWidth="1"/>
     <col min="16" max="16" width="13.25" customWidth="1"/>
-    <col min="17" max="28" width="12.8928571428571" customWidth="1"/>
+    <col min="17" max="28" width="12.8916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" ht="16.5" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10017,7 +9993,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" ht="16.5" spans="1:28">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -10080,7 +10056,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" ht="16.5" spans="1:28">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -10143,7 +10119,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" ht="16.5" spans="1:28">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -10218,7 +10194,7 @@
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://img.alicdn.com/imgextra/https://img.alicdn.com/imgextra/i4/2207959261164/O1CN017HZL7g1KT9ePJtXHi_!!2207959261164.jpg_430x430q90.jpg,https://img.alicdn.com/imgextra/https://img.alicdn.com/imgextra/i2/2207959261164/O1CN01EqmV401KT9ertC9HL_!!2207959261164.jpg_430x430q90.jpg,https://img.alicdn.com/imgextra/https://img.alicdn.com/imgextra/i3/2207959261164/O1CN01pgHTpX1KT9ePJuoIA_!!2207959261164.jpg_430x430q90.jpg,https://img.alicdn.com/imgextra/https://img.alicdn.com/imgextra/i3/2207959261164/O1CN01pgHTpX1KT9ePJuoIA_!!2207959261164.jpg_430x430q90.jpg</v>
+        <v>https://t15.baidu.com/it/u=3677393265,307861059&amp;fm=224&amp;app=112&amp;size=h200&amp;n=0&amp;f=JPEG&amp;fmt=auto?sec=1685466000&amp;t=cc3bc7325327ee7ce95198dcbe9777aa,https://t15.baidu.com/it/u=3677393265,307861059&amp;fm=224&amp;app=112&amp;size=h200&amp;n=0&amp;f=JPEG&amp;fmt=auto?sec=1685466000&amp;t=cc3bc7325327ee7ce95198dcbe9777aa,https://t15.baidu.com/it/u=3677393265,307861059&amp;fm=224&amp;app=112&amp;size=h200&amp;n=0&amp;f=JPEG&amp;fmt=auto?sec=1685466000&amp;t=cc3bc7325327ee7ce95198dcbe9777aa,https://t15.baidu.com/it/u=3677393265,307861059&amp;fm=224&amp;app=112&amp;size=h200&amp;n=0&amp;f=JPEG&amp;fmt=auto?sec=1685466000&amp;t=cc3bc7325327ee7ce95198dcbe9777aa</v>
       </c>
       <c r="E6" s="2">
         <v>356</v>
@@ -10244,17 +10220,17 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>50</v>
+      <c r="N6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -10274,10 +10250,10 @@
         <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10293,7 +10269,7 @@
         <v>50000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -10308,16 +10284,16 @@
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -10332,15 +10308,15 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" ht="16.5" spans="1:28">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10356,7 +10332,7 @@
         <v>50000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -10371,16 +10347,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -10395,15 +10371,15 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" ht="16.5" spans="1:28">
       <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10419,7 +10395,7 @@
         <v>100</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -10434,16 +10410,16 @@
         <v>0</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -10458,15 +10434,15 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" ht="16.5" spans="1:28">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10482,7 +10458,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -10497,16 +10473,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -10521,15 +10497,15 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" ht="16.5" spans="1:28">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10545,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -10560,16 +10536,16 @@
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -10584,15 +10560,15 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" ht="16.5" spans="1:28">
       <c r="A12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10608,7 +10584,7 @@
         <v>100</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -10623,16 +10599,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -10647,15 +10623,15 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" ht="16.5" spans="1:28">
       <c r="A13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10671,7 +10647,7 @@
         <v>100</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -10686,16 +10662,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -10710,15 +10686,15 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" ht="16.5" spans="1:28">
       <c r="A14" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10734,7 +10710,7 @@
         <v>1000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -10749,16 +10725,16 @@
         <v>1</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -10773,15 +10749,15 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" ht="16.5" spans="1:28">
       <c r="A15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10797,7 +10773,7 @@
         <v>10000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
@@ -10812,16 +10788,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -10836,15 +10812,15 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" ht="16.5" spans="1:28">
       <c r="A16" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10860,7 +10836,7 @@
         <v>10000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -10875,16 +10851,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -10899,15 +10875,15 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" ht="16.5" spans="1:28">
       <c r="A17" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10923,7 +10899,7 @@
         <v>55555</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -10938,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -10962,15 +10938,15 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" ht="16.5" spans="1:28">
       <c r="A18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="D18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10986,7 +10962,7 @@
         <v>100</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
@@ -11001,16 +10977,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -11025,15 +11001,15 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" ht="16.5" spans="1:28">
       <c r="A19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11049,7 +11025,7 @@
         <v>100</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -11064,16 +11040,16 @@
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -11088,15 +11064,15 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" ht="16.5" spans="1:28">
       <c r="A20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="D20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11112,7 +11088,7 @@
         <v>50</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
@@ -11127,16 +11103,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -11151,15 +11127,15 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" ht="16.5" spans="1:28">
       <c r="A21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="D21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11175,31 +11151,31 @@
         <v>200</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -11214,15 +11190,15 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" ht="16.5" spans="1:28">
       <c r="A22" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11238,31 +11214,31 @@
         <v>200</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -11277,15 +11253,15 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" ht="16.5" spans="1:28">
       <c r="A23" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11301,31 +11277,31 @@
         <v>200</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -11340,15 +11316,15 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" ht="16.5" spans="1:28">
       <c r="A24" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11364,7 +11340,7 @@
         <v>18</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
@@ -11379,16 +11355,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -11403,15 +11379,15 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" ht="16.5" spans="1:28">
       <c r="A25" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11427,7 +11403,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
@@ -11442,16 +11418,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -11466,15 +11442,15 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" ht="16.5" spans="1:28">
       <c r="A26" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11490,7 +11466,7 @@
         <v>23</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
@@ -11505,16 +11481,16 @@
         <v>1</v>
       </c>
       <c r="M26" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -11529,15 +11505,15 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" ht="16.5" spans="1:28">
       <c r="A27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11553,7 +11529,7 @@
         <v>9999</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
@@ -11568,16 +11544,16 @@
         <v>0</v>
       </c>
       <c r="M27" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -11592,15 +11568,15 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" ht="16.5" spans="1:28">
       <c r="A28" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11616,7 +11592,7 @@
         <v>9999</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
@@ -11631,16 +11607,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="P28" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -11655,15 +11631,15 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" ht="16.5" spans="1:28">
       <c r="A29" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="D29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11679,7 +11655,7 @@
         <v>9999</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
@@ -11694,16 +11670,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -11718,15 +11694,15 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" ht="16.5" spans="1:28">
       <c r="A30" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="D30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11742,7 +11718,7 @@
         <v>9999</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
@@ -11757,16 +11733,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="P30" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -11781,15 +11757,15 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" ht="16.5" spans="1:28">
       <c r="A31" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11805,7 +11781,7 @@
         <v>9999</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
@@ -11820,16 +11796,16 @@
         <v>1</v>
       </c>
       <c r="M31" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -11844,15 +11820,15 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" ht="16.5" spans="1:28">
       <c r="A32" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="D32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11868,7 +11844,7 @@
         <v>8675</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
@@ -11883,16 +11859,16 @@
         <v>0</v>
       </c>
       <c r="M32" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="P32" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -11907,15 +11883,15 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" ht="16.5" spans="1:28">
       <c r="A33" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11931,7 +11907,7 @@
         <v>6988</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
@@ -11946,16 +11922,16 @@
         <v>0</v>
       </c>
       <c r="M33" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="P33" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -11970,15 +11946,15 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" ht="16.5" spans="1:28">
       <c r="A34" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="D34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11994,7 +11970,7 @@
         <v>857</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
@@ -12009,16 +11985,16 @@
         <v>0</v>
       </c>
       <c r="M34" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="P34" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -12033,15 +12009,15 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" ht="16.5" spans="1:28">
       <c r="A35" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -12057,7 +12033,7 @@
         <v>9999</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
@@ -12072,16 +12048,16 @@
         <v>0</v>
       </c>
       <c r="M35" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="P35" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -12096,15 +12072,15 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" ht="16.5" spans="1:28">
       <c r="A36" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="D36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -12120,7 +12096,7 @@
         <v>8888</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
@@ -12135,16 +12111,16 @@
         <v>1</v>
       </c>
       <c r="M36" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -12159,15 +12135,15 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" ht="16.5" spans="1:28">
       <c r="A37" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="D37" s="2" t="str">
         <f t="shared" si="0"/>
@@ -12183,7 +12159,7 @@
         <v>3000</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
@@ -12198,16 +12174,16 @@
         <v>0</v>
       </c>
       <c r="M37" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -12222,15 +12198,15 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" ht="16.5" spans="1:28">
       <c r="A38" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D38" s="2" t="str">
         <f t="shared" si="0"/>
@@ -12246,7 +12222,7 @@
         <v>1000</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
@@ -12261,16 +12237,16 @@
         <v>0</v>
       </c>
       <c r="M38" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="P38" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -12285,15 +12261,15 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" ht="16.5" spans="1:28">
       <c r="A39" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D39" s="2" t="str">
         <f t="shared" si="0"/>
@@ -12309,7 +12285,7 @@
         <v>10200</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
@@ -12324,16 +12300,16 @@
         <v>1</v>
       </c>
       <c r="M39" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="P39" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -12348,15 +12324,15 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" ht="16.5" spans="1:28">
       <c r="A40" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="D40" s="2" t="str">
         <f t="shared" si="0"/>
@@ -12372,7 +12348,7 @@
         <v>6666</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
@@ -12387,16 +12363,16 @@
         <v>0</v>
       </c>
       <c r="M40" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="O40" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="P40" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -12411,15 +12387,15 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" ht="16.5" spans="1:28">
       <c r="A41" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="D41" s="2" t="str">
         <f t="shared" ref="D41:D60" si="1">M41&amp;","&amp;N41&amp;","&amp;O41&amp;","&amp;P41</f>
@@ -12435,7 +12411,7 @@
         <v>99800</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
@@ -12449,17 +12425,17 @@
       <c r="L41" s="2">
         <v>0</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="M41" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="O41" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="P41" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -12474,15 +12450,15 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" ht="16.5" spans="1:28">
       <c r="A42" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="D42" s="2" t="str">
         <f t="shared" si="1"/>
@@ -12498,7 +12474,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I42" s="2">
         <v>1</v>
@@ -12513,16 +12489,16 @@
         <v>0</v>
       </c>
       <c r="M42" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="N42" s="2" t="s">
+      <c r="P42" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -12537,15 +12513,15 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" ht="16.5" spans="1:28">
       <c r="A43" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="D43" s="2" t="str">
         <f t="shared" si="1"/>
@@ -12561,7 +12537,7 @@
         <v>2000</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I43" s="2">
         <v>1</v>
@@ -12576,16 +12552,16 @@
         <v>0</v>
       </c>
       <c r="M43" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="O43" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="P43" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -12600,15 +12576,15 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" ht="16.5" spans="1:28">
       <c r="A44" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D44" s="2" t="str">
         <f t="shared" si="1"/>
@@ -12624,7 +12600,7 @@
         <v>5000</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
@@ -12639,16 +12615,16 @@
         <v>0</v>
       </c>
       <c r="M44" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="N44" s="2" t="s">
+      <c r="P44" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
@@ -12663,15 +12639,15 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" ht="16.5" spans="1:28">
       <c r="A45" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D45" s="2" t="str">
         <f t="shared" si="1"/>
@@ -12687,7 +12663,7 @@
         <v>5000</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
@@ -12702,16 +12678,16 @@
         <v>0</v>
       </c>
       <c r="M45" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="O45" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="P45" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -12726,15 +12702,15 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" ht="16.5" spans="1:28">
       <c r="A46" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D46" s="2" t="str">
         <f t="shared" si="1"/>
@@ -12750,7 +12726,7 @@
         <v>5000</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
@@ -12765,16 +12741,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="O46" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="N46" s="2" t="s">
+      <c r="P46" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -12789,15 +12765,15 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" ht="16.5" spans="1:28">
       <c r="A47" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D47" s="2" t="str">
         <f t="shared" si="1"/>
@@ -12813,7 +12789,7 @@
         <v>5000</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I47" s="2">
         <v>1</v>
@@ -12828,16 +12804,16 @@
         <v>0</v>
       </c>
       <c r="M47" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="P47" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -12852,15 +12828,15 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" ht="16.5" spans="1:28">
       <c r="A48" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="D48" s="2" t="str">
         <f t="shared" si="1"/>
@@ -12876,7 +12852,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I48" s="2">
         <v>1</v>
@@ -12891,16 +12867,16 @@
         <v>0</v>
       </c>
       <c r="M48" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="O48" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="P48" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
@@ -12915,15 +12891,15 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" ht="16.5" spans="1:28">
       <c r="A49" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D49" s="2" t="str">
         <f t="shared" si="1"/>
@@ -12939,7 +12915,7 @@
         <v>5000</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I49" s="2">
         <v>1</v>
@@ -12954,16 +12930,16 @@
         <v>0</v>
       </c>
       <c r="M49" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="P49" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
@@ -12978,15 +12954,15 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" ht="16.5" spans="1:28">
       <c r="A50" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D50" s="2" t="str">
         <f t="shared" si="1"/>
@@ -13002,7 +12978,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I50" s="2">
         <v>1</v>
@@ -13017,16 +12993,16 @@
         <v>0</v>
       </c>
       <c r="M50" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="O50" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="N50" s="2" t="s">
+      <c r="P50" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
@@ -13041,15 +13017,15 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" ht="16.5" spans="1:28">
       <c r="A51" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="D51" s="2" t="str">
         <f t="shared" si="1"/>
@@ -13065,7 +13041,7 @@
         <v>2000</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I51" s="2">
         <v>1</v>
@@ -13080,16 +13056,16 @@
         <v>0</v>
       </c>
       <c r="M51" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O51" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="P51" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
@@ -13104,15 +13080,15 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" ht="16.5" spans="1:28">
       <c r="A52" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D52" s="2" t="str">
         <f t="shared" si="1"/>
@@ -13128,7 +13104,7 @@
         <v>10000</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I52" s="2">
         <v>1</v>
@@ -13143,16 +13119,16 @@
         <v>0</v>
       </c>
       <c r="M52" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="O52" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="P52" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
@@ -13167,15 +13143,15 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" ht="16.5" spans="1:28">
       <c r="A53" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D53" s="2" t="str">
         <f t="shared" si="1"/>
@@ -13191,7 +13167,7 @@
         <v>1000</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I53" s="2">
         <v>1</v>
@@ -13206,16 +13182,16 @@
         <v>0</v>
       </c>
       <c r="M53" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O53" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="N53" s="2" t="s">
+      <c r="P53" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
@@ -13230,15 +13206,15 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" ht="16.5" spans="1:28">
       <c r="A54" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="D54" s="2" t="str">
         <f t="shared" si="1"/>
@@ -13254,7 +13230,7 @@
         <v>1226</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I54" s="2">
         <v>1</v>
@@ -13269,16 +13245,16 @@
         <v>0</v>
       </c>
       <c r="M54" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="O54" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="N54" s="2" t="s">
+      <c r="P54" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -13293,15 +13269,15 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" ht="16.5" spans="1:28">
       <c r="A55" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D55" s="2" t="str">
         <f t="shared" si="1"/>
@@ -13317,7 +13293,7 @@
         <v>2662</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I55" s="2">
         <v>1</v>
@@ -13332,16 +13308,16 @@
         <v>0</v>
       </c>
       <c r="M55" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="O55" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="N55" s="2" t="s">
+      <c r="P55" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
@@ -13356,15 +13332,15 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" ht="16.5" spans="1:28">
       <c r="A56" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D56" s="2" t="str">
         <f t="shared" si="1"/>
@@ -13380,7 +13356,7 @@
         <v>126</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I56" s="2">
         <v>1</v>
@@ -13395,16 +13371,16 @@
         <v>0</v>
       </c>
       <c r="M56" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="N56" s="2" t="s">
+      <c r="P56" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
@@ -13419,15 +13395,15 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" ht="16.5" spans="1:28">
       <c r="A57" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D57" s="2" t="str">
         <f t="shared" si="1"/>
@@ -13443,7 +13419,7 @@
         <v>9988</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I57" s="2">
         <v>1</v>
@@ -13458,16 +13434,16 @@
         <v>0</v>
       </c>
       <c r="M57" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="O57" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="N57" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="P57" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
@@ -13482,15 +13458,15 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" ht="16.5" spans="1:28">
       <c r="A58" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D58" s="2" t="str">
         <f t="shared" si="1"/>
@@ -13506,7 +13482,7 @@
         <v>332</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I58" s="2">
         <v>1</v>
@@ -13521,16 +13497,16 @@
         <v>0</v>
       </c>
       <c r="M58" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="O58" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="N58" s="2" t="s">
+      <c r="P58" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -13545,15 +13521,15 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" ht="16.5" spans="1:28">
       <c r="A59" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D59" s="2" t="str">
         <f t="shared" si="1"/>
@@ -13569,7 +13545,7 @@
         <v>7905</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I59" s="2">
         <v>1</v>
@@ -13584,16 +13560,16 @@
         <v>0</v>
       </c>
       <c r="M59" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="P59" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -13608,15 +13584,15 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" ht="16.5" spans="1:28">
       <c r="A60" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="D60" s="2" t="str">
         <f t="shared" si="1"/>
@@ -13632,7 +13608,7 @@
         <v>425</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I60" s="2">
         <v>1</v>
@@ -13647,16 +13623,16 @@
         <v>0</v>
       </c>
       <c r="M60" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="O60" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="N60" s="2" t="s">
+      <c r="P60" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
@@ -13671,15 +13647,15 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" ht="16.5" spans="1:28">
       <c r="A61" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="D61" s="2" t="str">
         <f t="shared" ref="D61:D92" si="2">M61&amp;","&amp;N61&amp;","&amp;O61&amp;","&amp;P61</f>
@@ -13695,7 +13671,7 @@
         <v>5</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I61" s="2">
         <v>1</v>
@@ -13710,16 +13686,16 @@
         <v>0</v>
       </c>
       <c r="M61" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="O61" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="N61" s="2" t="s">
+      <c r="P61" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
@@ -13734,15 +13710,15 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" ht="16.5" spans="1:28">
       <c r="A62" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="D62" s="2" t="str">
         <f t="shared" si="2"/>
@@ -13758,7 +13734,7 @@
         <v>10</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I62" s="2">
         <v>1</v>
@@ -13773,16 +13749,16 @@
         <v>0</v>
       </c>
       <c r="M62" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="O62" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="P62" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
@@ -13797,15 +13773,15 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" ht="16.5" spans="1:28">
       <c r="A63" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="D63" s="2" t="str">
         <f t="shared" si="2"/>
@@ -13821,7 +13797,7 @@
         <v>6000</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I63" s="2">
         <v>1</v>
@@ -13836,16 +13812,16 @@
         <v>0</v>
       </c>
       <c r="M63" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="O63" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="N63" s="2" t="s">
+      <c r="P63" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
@@ -13860,15 +13836,15 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" ht="16.5" spans="1:28">
       <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D64" s="2" t="str">
         <f t="shared" si="2"/>
@@ -13884,7 +13860,7 @@
         <v>9999</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I64" s="2">
         <v>1</v>
@@ -13899,16 +13875,16 @@
         <v>0</v>
       </c>
       <c r="M64" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="O64" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="N64" s="2" t="s">
+      <c r="P64" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
@@ -13923,15 +13899,15 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" ht="16.5" spans="1:28">
       <c r="A65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D65" s="2" t="str">
         <f t="shared" si="2"/>
@@ -13947,7 +13923,7 @@
         <v>9999</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I65" s="2">
         <v>1</v>
@@ -13962,16 +13938,16 @@
         <v>0</v>
       </c>
       <c r="M65" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="O65" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="N65" s="2" t="s">
+      <c r="P65" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
@@ -13986,15 +13962,15 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" ht="16.5" spans="1:28">
       <c r="A66" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="D66" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14010,7 +13986,7 @@
         <v>100</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I66" s="2">
         <v>1</v>
@@ -14025,16 +14001,16 @@
         <v>0</v>
       </c>
       <c r="M66" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="O66" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="N66" s="2" t="s">
+      <c r="P66" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
@@ -14049,15 +14025,15 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" ht="16.5" spans="1:28">
       <c r="A67" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D67" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14073,7 +14049,7 @@
         <v>66</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I67" s="2">
         <v>1</v>
@@ -14088,16 +14064,16 @@
         <v>0</v>
       </c>
       <c r="M67" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="O67" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="N67" s="2" t="s">
+      <c r="P67" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
@@ -14112,15 +14088,15 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" ht="16.5" spans="1:28">
       <c r="A68" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D68" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14136,7 +14112,7 @@
         <v>213</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I68" s="2">
         <v>1</v>
@@ -14151,16 +14127,16 @@
         <v>0</v>
       </c>
       <c r="M68" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="O68" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="N68" s="2" t="s">
+      <c r="P68" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
@@ -14175,15 +14151,15 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" ht="16.5" spans="1:28">
       <c r="A69" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="D69" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14199,7 +14175,7 @@
         <v>999</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I69" s="2">
         <v>1</v>
@@ -14214,16 +14190,16 @@
         <v>0</v>
       </c>
       <c r="M69" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="O69" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="N69" s="2" t="s">
+      <c r="P69" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
@@ -14238,15 +14214,15 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" ht="16.5" spans="1:28">
       <c r="A70" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D70" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14262,7 +14238,7 @@
         <v>9999</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I70" s="2">
         <v>1</v>
@@ -14277,16 +14253,16 @@
         <v>0</v>
       </c>
       <c r="M70" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="O70" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="N70" s="2" t="s">
+      <c r="P70" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
@@ -14301,15 +14277,15 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" ht="16.5" spans="1:28">
       <c r="A71" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D71" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14325,7 +14301,7 @@
         <v>999999</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I71" s="2">
         <v>1</v>
@@ -14340,16 +14316,16 @@
         <v>0</v>
       </c>
       <c r="M71" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="P71" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
@@ -14364,15 +14340,15 @@
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" ht="16.5" spans="1:28">
       <c r="A72" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D72" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14388,7 +14364,7 @@
         <v>6666</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I72" s="2">
         <v>1</v>
@@ -14403,16 +14379,16 @@
         <v>0</v>
       </c>
       <c r="M72" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="O72" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="N72" s="2" t="s">
+      <c r="P72" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>531</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
@@ -14427,15 +14403,15 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" ht="16.5" spans="1:28">
       <c r="A73" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D73" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14451,7 +14427,7 @@
         <v>666</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I73" s="2">
         <v>1</v>
@@ -14466,16 +14442,16 @@
         <v>0</v>
       </c>
       <c r="M73" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="O73" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="N73" s="2" t="s">
+      <c r="P73" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
@@ -14490,15 +14466,15 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" ht="16.5" spans="1:28">
       <c r="A74" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D74" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14514,7 +14490,7 @@
         <v>1666</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I74" s="2">
         <v>1</v>
@@ -14529,16 +14505,16 @@
         <v>0</v>
       </c>
       <c r="M74" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="O74" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="N74" s="2" t="s">
+      <c r="P74" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
@@ -14553,15 +14529,15 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" ht="16.5" spans="1:28">
       <c r="A75" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="D75" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14577,7 +14553,7 @@
         <v>143000</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I75" s="2">
         <v>1</v>
@@ -14592,16 +14568,16 @@
         <v>0</v>
       </c>
       <c r="M75" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="P75" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
@@ -14616,15 +14592,15 @@
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" ht="16.5" spans="1:28">
       <c r="A76" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="D76" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14640,7 +14616,7 @@
         <v>21000</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I76" s="2">
         <v>1</v>
@@ -14655,16 +14631,16 @@
         <v>0</v>
       </c>
       <c r="M76" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="O76" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="N76" s="2" t="s">
+      <c r="P76" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
@@ -14679,15 +14655,15 @@
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" ht="16.5" spans="1:28">
       <c r="A77" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="D77" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14703,7 +14679,7 @@
         <v>10</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I77" s="2">
         <v>1</v>
@@ -14718,16 +14694,16 @@
         <v>0</v>
       </c>
       <c r="M77" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="O77" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="N77" s="2" t="s">
+      <c r="P77" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>566</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
@@ -14742,15 +14718,15 @@
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" ht="16.5" spans="1:28">
       <c r="A78" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D78" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14766,7 +14742,7 @@
         <v>223000</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I78" s="2">
         <v>1</v>
@@ -14781,16 +14757,16 @@
         <v>0</v>
       </c>
       <c r="M78" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="O78" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="N78" s="2" t="s">
+      <c r="P78" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
@@ -14805,15 +14781,15 @@
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" ht="16.5" spans="1:28">
       <c r="A79" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D79" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14829,7 +14805,7 @@
         <v>20000</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I79" s="2">
         <v>1</v>
@@ -14844,16 +14820,16 @@
         <v>0</v>
       </c>
       <c r="M79" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="P79" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
@@ -14868,15 +14844,15 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" ht="16.5" spans="1:28">
       <c r="A80" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D80" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14892,7 +14868,7 @@
         <v>10</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I80" s="2">
         <v>1</v>
@@ -14907,16 +14883,16 @@
         <v>0</v>
       </c>
       <c r="M80" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="N80" s="2" t="s">
+      <c r="P80" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
@@ -14931,15 +14907,15 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" ht="16.5" spans="1:28">
       <c r="A81" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="D81" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14955,7 +14931,7 @@
         <v>2000</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I81" s="2">
         <v>1</v>
@@ -14970,16 +14946,16 @@
         <v>0</v>
       </c>
       <c r="M81" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="O81" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="N81" s="2" t="s">
+      <c r="P81" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>591</v>
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
@@ -14994,15 +14970,15 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" ht="16.5" spans="1:28">
       <c r="A82" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="D82" s="2" t="str">
         <f t="shared" si="2"/>
@@ -15018,7 +14994,7 @@
         <v>8</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I82" s="2">
         <v>1</v>
@@ -15033,16 +15009,16 @@
         <v>0</v>
       </c>
       <c r="M82" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="O82" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="N82" s="2" t="s">
+      <c r="P82" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
@@ -15062,10 +15038,10 @@
         <v>16</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D83" s="2" t="str">
         <f t="shared" si="2"/>
@@ -15081,7 +15057,7 @@
         <v>10000</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I83" s="2">
         <v>1</v>
@@ -15096,16 +15072,16 @@
         <v>0</v>
       </c>
       <c r="M83" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="O83" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="N83" s="2" t="s">
+      <c r="P83" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="P83" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
@@ -15122,13 +15098,13 @@
     </row>
     <row r="84" ht="27.75" customHeight="1" spans="1:28">
       <c r="A84" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="D84" s="2" t="str">
         <f t="shared" si="2"/>
@@ -15144,7 +15120,7 @@
         <v>9999</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I84" s="2">
         <v>1</v>
@@ -15159,16 +15135,16 @@
         <v>0</v>
       </c>
       <c r="M84" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="O84" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="N84" s="2" t="s">
+      <c r="P84" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
@@ -15183,15 +15159,15 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" ht="16.5" spans="1:28">
       <c r="A85" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="D85" s="2" t="str">
         <f t="shared" si="2"/>
@@ -15207,7 +15183,7 @@
         <v>888</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I85" s="2">
         <v>1</v>
@@ -15222,16 +15198,16 @@
         <v>0</v>
       </c>
       <c r="M85" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="O85" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="N85" s="2" t="s">
+      <c r="P85" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
@@ -15246,15 +15222,15 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" ht="16.5" spans="1:28">
       <c r="A86" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="D86" s="2" t="str">
         <f t="shared" si="2"/>
@@ -15270,7 +15246,7 @@
         <v>998</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I86" s="2">
         <v>1</v>
@@ -15285,16 +15261,16 @@
         <v>0</v>
       </c>
       <c r="M86" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="O86" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="N86" s="2" t="s">
+      <c r="P86" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
@@ -15309,15 +15285,15 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" ht="16.5" spans="1:28">
       <c r="A87" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="D87" s="2" t="str">
         <f t="shared" si="2"/>
@@ -15333,7 +15309,7 @@
         <v>2000</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I87" s="2">
         <v>1</v>
@@ -15348,16 +15324,16 @@
         <v>0</v>
       </c>
       <c r="M87" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="O87" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="N87" s="2" t="s">
+      <c r="P87" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
@@ -15372,15 +15348,15 @@
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" ht="16.5" spans="1:28">
       <c r="A88" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="D88" s="2" t="str">
         <f t="shared" si="2"/>
@@ -15396,7 +15372,7 @@
         <v>1000</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I88" s="2">
         <v>1</v>
@@ -15411,16 +15387,16 @@
         <v>0</v>
       </c>
       <c r="M88" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="O88" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="N88" s="2" t="s">
+      <c r="P88" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
@@ -15435,15 +15411,15 @@
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" ht="16.5" spans="1:28">
       <c r="A89" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="D89" s="2" t="str">
         <f t="shared" si="2"/>
@@ -15459,7 +15435,7 @@
         <v>2000</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I89" s="2">
         <v>1</v>
@@ -15474,16 +15450,16 @@
         <v>0</v>
       </c>
       <c r="M89" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="O89" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="N89" s="2" t="s">
+      <c r="P89" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
@@ -15498,15 +15474,15 @@
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" ht="16.5" spans="1:28">
       <c r="A90" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="D90" s="2" t="str">
         <f t="shared" si="2"/>
@@ -15522,7 +15498,7 @@
         <v>800</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I90" s="2">
         <v>1</v>
@@ -15537,16 +15513,16 @@
         <v>0</v>
       </c>
       <c r="M90" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="P90" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
@@ -15561,15 +15537,15 @@
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" ht="16.5" spans="1:28">
       <c r="A91" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D91" s="2" t="str">
         <f t="shared" si="2"/>
@@ -15585,7 +15561,7 @@
         <v>1020</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="I91" s="2">
         <v>1</v>
@@ -15600,16 +15576,16 @@
         <v>0</v>
       </c>
       <c r="M91" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="O91" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="N91" s="2" t="s">
+      <c r="P91" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="P91" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
@@ -15624,15 +15600,15 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" ht="16.5" spans="1:28">
       <c r="A92" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D92" s="2" t="str">
         <f t="shared" si="2"/>
@@ -15648,7 +15624,7 @@
         <v>950</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I92" s="2">
         <v>1</v>
@@ -15663,16 +15639,16 @@
         <v>0</v>
       </c>
       <c r="M92" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="O92" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="N92" s="2" t="s">
+      <c r="P92" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="O92" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="P92" s="2" t="s">
-        <v>675</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
@@ -15687,15 +15663,15 @@
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" ht="16.5" spans="1:28">
       <c r="A93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D93" s="2" t="str">
         <f t="shared" ref="D93:D124" si="3">M93&amp;","&amp;N93&amp;","&amp;O93&amp;","&amp;P93</f>
@@ -15711,7 +15687,7 @@
         <v>2000</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I93" s="2">
         <v>1</v>
@@ -15726,16 +15702,16 @@
         <v>0</v>
       </c>
       <c r="M93" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="O93" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="N93" s="2" t="s">
+      <c r="P93" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="P93" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
@@ -15750,15 +15726,15 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" ht="16.5" spans="1:28">
       <c r="A94" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="D94" s="2" t="str">
         <f t="shared" si="3"/>
@@ -15774,7 +15750,7 @@
         <v>1200</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I94" s="2">
         <v>1</v>
@@ -15789,16 +15765,16 @@
         <v>0</v>
       </c>
       <c r="M94" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="O94" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="N94" s="2" t="s">
+      <c r="P94" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="P94" s="2" t="s">
-        <v>689</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
@@ -15813,15 +15789,15 @@
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" ht="16.5" spans="1:28">
       <c r="A95" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>692</v>
       </c>
       <c r="D95" s="2" t="str">
         <f t="shared" si="3"/>
@@ -15837,7 +15813,7 @@
         <v>3000</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I95" s="2">
         <v>1</v>
@@ -15852,16 +15828,16 @@
         <v>0</v>
       </c>
       <c r="M95" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="N95" s="2" t="s">
+      <c r="P95" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="O95" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="P95" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
@@ -15876,15 +15852,15 @@
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" ht="16.5" spans="1:28">
       <c r="A96" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>700</v>
       </c>
       <c r="D96" s="2" t="str">
         <f t="shared" si="3"/>
@@ -15900,7 +15876,7 @@
         <v>100</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I96" s="2">
         <v>1</v>
@@ -15915,16 +15891,16 @@
         <v>0</v>
       </c>
       <c r="M96" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="O96" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="N96" s="2" t="s">
+      <c r="P96" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="O96" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="P96" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
@@ -15939,15 +15915,15 @@
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" ht="16.5" spans="1:28">
       <c r="A97" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D97" s="2" t="str">
         <f t="shared" si="3"/>
@@ -15963,7 +15939,7 @@
         <v>100</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="I97" s="2">
         <v>1</v>
@@ -15978,16 +15954,16 @@
         <v>0</v>
       </c>
       <c r="M97" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="O97" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="N97" s="2" t="s">
+      <c r="P97" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
@@ -16002,15 +15978,15 @@
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" ht="16.5" spans="1:28">
       <c r="A98" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D98" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16026,7 +16002,7 @@
         <v>100</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="I98" s="2">
         <v>1</v>
@@ -16041,16 +16017,16 @@
         <v>0</v>
       </c>
       <c r="M98" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="O98" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="N98" s="2" t="s">
+      <c r="P98" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="P98" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
@@ -16065,15 +16041,15 @@
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" ht="16.5" spans="1:28">
       <c r="A99" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="D99" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16089,7 +16065,7 @@
         <v>5000</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I99" s="2">
         <v>1</v>
@@ -16104,16 +16080,16 @@
         <v>0</v>
       </c>
       <c r="M99" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="O99" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="N99" s="2" t="s">
+      <c r="P99" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="O99" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="P99" s="2" t="s">
-        <v>725</v>
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
@@ -16128,15 +16104,15 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" ht="16.5" spans="1:28">
       <c r="A100" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D100" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16152,7 +16128,7 @@
         <v>8000</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I100" s="2">
         <v>1</v>
@@ -16167,16 +16143,16 @@
         <v>0</v>
       </c>
       <c r="M100" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="P100" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="P100" s="2" t="s">
-        <v>731</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
@@ -16191,15 +16167,15 @@
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" ht="16.5" spans="1:28">
       <c r="A101" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D101" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16215,7 +16191,7 @@
         <v>3000</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I101" s="2">
         <v>1</v>
@@ -16230,16 +16206,16 @@
         <v>0</v>
       </c>
       <c r="M101" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="O101" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="N101" s="2" t="s">
+      <c r="P101" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="P101" s="2" t="s">
-        <v>738</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
@@ -16254,15 +16230,15 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" ht="16.5" spans="1:28">
       <c r="A102" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D102" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16278,7 +16254,7 @@
         <v>1200</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I102" s="2">
         <v>1</v>
@@ -16293,16 +16269,16 @@
         <v>0</v>
       </c>
       <c r="M102" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="O102" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="N102" s="2" t="s">
+      <c r="P102" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="P102" s="2" t="s">
-        <v>745</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
@@ -16317,15 +16293,15 @@
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" ht="16.5" spans="1:28">
       <c r="A103" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D103" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16341,7 +16317,7 @@
         <v>900</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I103" s="2">
         <v>1</v>
@@ -16356,16 +16332,16 @@
         <v>0</v>
       </c>
       <c r="M103" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="O103" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="N103" s="2" t="s">
+      <c r="P103" s="2" t="s">
         <v>750</v>
-      </c>
-      <c r="O103" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="P103" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
@@ -16380,15 +16356,15 @@
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" ht="16.5" spans="1:28">
       <c r="A104" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D104" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16404,7 +16380,7 @@
         <v>1888</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I104" s="2">
         <v>1</v>
@@ -16419,16 +16395,16 @@
         <v>0</v>
       </c>
       <c r="M104" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="O104" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="N104" s="2" t="s">
+      <c r="P104" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="O104" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="P104" s="2" t="s">
-        <v>759</v>
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
@@ -16443,15 +16419,15 @@
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" ht="16.5" spans="1:28">
       <c r="A105" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>762</v>
       </c>
       <c r="D105" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16467,7 +16443,7 @@
         <v>300</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I105" s="2">
         <v>1</v>
@@ -16482,16 +16458,16 @@
         <v>0</v>
       </c>
       <c r="M105" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="O105" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="N105" s="2" t="s">
+      <c r="P105" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="O105" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="P105" s="2" t="s">
-        <v>767</v>
       </c>
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
@@ -16506,15 +16482,15 @@
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" ht="16.5" spans="1:28">
       <c r="A106" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>770</v>
       </c>
       <c r="D106" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16530,7 +16506,7 @@
         <v>1000</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I106" s="2">
         <v>1</v>
@@ -16545,16 +16521,16 @@
         <v>0</v>
       </c>
       <c r="M106" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="O106" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="N106" s="2" t="s">
+      <c r="P106" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="O106" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="P106" s="2" t="s">
-        <v>775</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
@@ -16569,15 +16545,15 @@
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" ht="16.5" spans="1:28">
       <c r="A107" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="D107" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16593,7 +16569,7 @@
         <v>50</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="I107" s="2">
         <v>1</v>
@@ -16608,16 +16584,16 @@
         <v>0</v>
       </c>
       <c r="M107" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="O107" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="N107" s="2" t="s">
+      <c r="P107" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="P107" s="2" t="s">
-        <v>783</v>
       </c>
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
@@ -16632,15 +16608,15 @@
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" ht="16.5" spans="1:28">
       <c r="A108" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="D108" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16656,31 +16632,31 @@
         <v>1</v>
       </c>
       <c r="H108" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="I108" s="2">
+        <v>1</v>
+      </c>
+      <c r="J108" s="2">
+        <v>1</v>
+      </c>
+      <c r="K108" s="2">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2">
+        <v>0</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="N108" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="I108" s="2">
-        <v>1</v>
-      </c>
-      <c r="J108" s="2">
-        <v>1</v>
-      </c>
-      <c r="K108" s="2">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2">
-        <v>0</v>
-      </c>
-      <c r="M108" s="2" t="s">
+      <c r="O108" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="N108" s="2" t="s">
+      <c r="P108" s="2" t="s">
         <v>789</v>
-      </c>
-      <c r="O108" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="P108" s="2" t="s">
-        <v>791</v>
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
@@ -16695,15 +16671,15 @@
       <c r="AA108" s="2"/>
       <c r="AB108" s="2"/>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" ht="16.5" spans="1:28">
       <c r="A109" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>792</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>794</v>
       </c>
       <c r="D109" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16719,31 +16695,31 @@
         <v>1</v>
       </c>
       <c r="H109" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="I109" s="2">
+        <v>1</v>
+      </c>
+      <c r="J109" s="2">
+        <v>1</v>
+      </c>
+      <c r="K109" s="2">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2">
+        <v>0</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="N109" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="I109" s="2">
-        <v>1</v>
-      </c>
-      <c r="J109" s="2">
-        <v>1</v>
-      </c>
-      <c r="K109" s="2">
-        <v>0</v>
-      </c>
-      <c r="L109" s="2">
-        <v>0</v>
-      </c>
-      <c r="M109" s="2" t="s">
+      <c r="O109" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="N109" s="2" t="s">
+      <c r="P109" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="O109" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="P109" s="2" t="s">
-        <v>799</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
@@ -16758,15 +16734,15 @@
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" ht="16.5" spans="1:28">
       <c r="A110" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>802</v>
       </c>
       <c r="D110" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16782,31 +16758,31 @@
         <v>6666</v>
       </c>
       <c r="H110" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="I110" s="2">
+        <v>1</v>
+      </c>
+      <c r="J110" s="2">
+        <v>0</v>
+      </c>
+      <c r="K110" s="2">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2">
+        <v>0</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="N110" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="I110" s="2">
-        <v>1</v>
-      </c>
-      <c r="J110" s="2">
-        <v>0</v>
-      </c>
-      <c r="K110" s="2">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2">
-        <v>0</v>
-      </c>
-      <c r="M110" s="2" t="s">
+      <c r="O110" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="N110" s="2" t="s">
+      <c r="P110" s="2" t="s">
         <v>805</v>
-      </c>
-      <c r="O110" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="P110" s="2" t="s">
-        <v>807</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
@@ -16821,15 +16797,15 @@
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" ht="16.5" spans="1:28">
       <c r="A111" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>808</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>810</v>
       </c>
       <c r="D111" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16845,7 +16821,7 @@
         <v>1000</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I111" s="2">
         <v>1</v>
@@ -16860,16 +16836,16 @@
         <v>0</v>
       </c>
       <c r="M111" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="O111" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="N111" s="2" t="s">
+      <c r="P111" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="O111" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="P111" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" s="2"/>
@@ -16884,15 +16860,15 @@
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" ht="16.5" spans="1:28">
       <c r="A112" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D112" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16908,7 +16884,7 @@
         <v>1000</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I112" s="2">
         <v>1</v>
@@ -16923,16 +16899,16 @@
         <v>0</v>
       </c>
       <c r="M112" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="O112" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="N112" s="2" t="s">
+      <c r="P112" s="2" t="s">
         <v>819</v>
-      </c>
-      <c r="O112" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="P112" s="2" t="s">
-        <v>821</v>
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
@@ -16947,15 +16923,15 @@
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" ht="16.5" spans="1:28">
       <c r="A113" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D113" s="2" t="str">
         <f t="shared" si="3"/>
@@ -16971,7 +16947,7 @@
         <v>1000</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I113" s="2">
         <v>1</v>
@@ -16986,16 +16962,16 @@
         <v>0</v>
       </c>
       <c r="M113" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="O113" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="N113" s="2" t="s">
+      <c r="P113" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="O113" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="P113" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
@@ -17010,15 +16986,15 @@
       <c r="AA113" s="2"/>
       <c r="AB113" s="2"/>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" ht="16.5" spans="1:28">
       <c r="A114" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D114" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17034,7 +17010,7 @@
         <v>500</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="I114" s="2">
         <v>1</v>
@@ -17049,16 +17025,16 @@
         <v>0</v>
       </c>
       <c r="M114" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="O114" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="N114" s="2" t="s">
+      <c r="P114" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="O114" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="P114" s="2" t="s">
-        <v>832</v>
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" s="2"/>
@@ -17073,15 +17049,15 @@
       <c r="AA114" s="2"/>
       <c r="AB114" s="2"/>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" ht="16.5" spans="1:28">
       <c r="A115" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D115" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17097,7 +17073,7 @@
         <v>100</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I115" s="2">
         <v>1</v>
@@ -17112,16 +17088,16 @@
         <v>0</v>
       </c>
       <c r="M115" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="O115" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="N115" s="2" t="s">
+      <c r="P115" s="2" t="s">
         <v>836</v>
-      </c>
-      <c r="O115" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="P115" s="2" t="s">
-        <v>838</v>
       </c>
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
@@ -17136,15 +17112,15 @@
       <c r="AA115" s="2"/>
       <c r="AB115" s="2"/>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" ht="16.5" spans="1:28">
       <c r="A116" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D116" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17160,7 +17136,7 @@
         <v>200</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I116" s="2">
         <v>1</v>
@@ -17175,16 +17151,16 @@
         <v>0</v>
       </c>
       <c r="M116" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="O116" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="N116" s="2" t="s">
+      <c r="P116" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="O116" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="P116" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
@@ -17199,15 +17175,15 @@
       <c r="AA116" s="2"/>
       <c r="AB116" s="2"/>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" ht="16.5" spans="1:28">
       <c r="A117" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D117" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17223,7 +17199,7 @@
         <v>34543</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I117" s="2">
         <v>1</v>
@@ -17238,16 +17214,16 @@
         <v>0</v>
       </c>
       <c r="M117" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="O117" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="N117" s="2" t="s">
+      <c r="P117" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="O117" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="P117" s="2" t="s">
-        <v>852</v>
       </c>
       <c r="Q117" s="2"/>
       <c r="R117" s="2"/>
@@ -17262,15 +17238,15 @@
       <c r="AA117" s="2"/>
       <c r="AB117" s="2"/>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" ht="16.5" spans="1:28">
       <c r="A118" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D118" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17286,7 +17262,7 @@
         <v>34123</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I118" s="2">
         <v>1</v>
@@ -17301,16 +17277,16 @@
         <v>0</v>
       </c>
       <c r="M118" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="O118" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="N118" s="2" t="s">
+      <c r="P118" s="2" t="s">
         <v>856</v>
-      </c>
-      <c r="O118" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="P118" s="2" t="s">
-        <v>858</v>
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
@@ -17325,15 +17301,15 @@
       <c r="AA118" s="2"/>
       <c r="AB118" s="2"/>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" ht="16.5" spans="1:28">
       <c r="A119" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D119" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17349,7 +17325,7 @@
         <v>34234</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I119" s="2">
         <v>1</v>
@@ -17364,16 +17340,16 @@
         <v>0</v>
       </c>
       <c r="M119" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="O119" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="N119" s="2" t="s">
+      <c r="P119" s="2" t="s">
         <v>862</v>
-      </c>
-      <c r="O119" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="P119" s="2" t="s">
-        <v>864</v>
       </c>
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
@@ -17388,15 +17364,15 @@
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" ht="16.5" spans="1:28">
       <c r="A120" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>865</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>867</v>
       </c>
       <c r="D120" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17412,7 +17388,7 @@
         <v>2000</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I120" s="2">
         <v>1</v>
@@ -17427,16 +17403,16 @@
         <v>0</v>
       </c>
       <c r="M120" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="O120" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="N120" s="2" t="s">
+      <c r="P120" s="2" t="s">
         <v>870</v>
-      </c>
-      <c r="O120" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="P120" s="2" t="s">
-        <v>872</v>
       </c>
       <c r="Q120" s="2"/>
       <c r="R120" s="2"/>
@@ -17451,15 +17427,15 @@
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" ht="16.5" spans="1:28">
       <c r="A121" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>873</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>875</v>
       </c>
       <c r="D121" s="2" t="str">
         <f t="shared" si="3"/>
@@ -17475,7 +17451,7 @@
         <v>150</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I121" s="2">
         <v>1</v>
@@ -17490,16 +17466,16 @@
         <v>0</v>
       </c>
       <c r="M121" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="O121" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="N121" s="2" t="s">
+      <c r="P121" s="2" t="s">
         <v>878</v>
-      </c>
-      <c r="O121" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="P121" s="2" t="s">
-        <v>880</v>
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
@@ -17514,15 +17490,15 @@
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" ht="16.5" spans="1:28">
       <c r="A122" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>883</v>
       </c>
       <c r="D122" s="2" t="str">
         <f t="shared" ref="D122:D155" si="4">M122&amp;","&amp;N122&amp;","&amp;O122&amp;","&amp;P122</f>
@@ -17538,7 +17514,7 @@
         <v>9900</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I122" s="2">
         <v>1</v>
@@ -17553,16 +17529,16 @@
         <v>0</v>
       </c>
       <c r="M122" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="O122" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="N122" s="2" t="s">
+      <c r="P122" s="2" t="s">
         <v>886</v>
-      </c>
-      <c r="O122" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="P122" s="2" t="s">
-        <v>888</v>
       </c>
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
@@ -17577,15 +17553,15 @@
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" ht="16.5" spans="1:28">
       <c r="A123" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D123" s="2" t="str">
         <f t="shared" si="4"/>
@@ -17601,7 +17577,7 @@
         <v>3000</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="I123" s="2">
         <v>1</v>
@@ -17616,16 +17592,16 @@
         <v>0</v>
       </c>
       <c r="M123" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="O123" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="N123" s="2" t="s">
+      <c r="P123" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="O123" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="P123" s="2" t="s">
-        <v>895</v>
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
@@ -17640,15 +17616,15 @@
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" ht="16.5" spans="1:28">
       <c r="A124" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D124" s="2" t="str">
         <f t="shared" si="4"/>
@@ -17664,7 +17640,7 @@
         <v>2000</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I124" s="2">
         <v>1</v>
@@ -17679,16 +17655,16 @@
         <v>0</v>
       </c>
       <c r="M124" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="O124" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="N124" s="2" t="s">
+      <c r="P124" s="2" t="s">
         <v>900</v>
-      </c>
-      <c r="O124" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="P124" s="2" t="s">
-        <v>902</v>
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
@@ -17703,15 +17679,15 @@
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" ht="16.5" spans="1:28">
       <c r="A125" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D125" s="2" t="str">
         <f t="shared" si="4"/>
@@ -17727,7 +17703,7 @@
         <v>500</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I125" s="2">
         <v>1</v>
@@ -17742,16 +17718,16 @@
         <v>0</v>
       </c>
       <c r="M125" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="O125" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="N125" s="2" t="s">
+      <c r="P125" s="2" t="s">
         <v>907</v>
-      </c>
-      <c r="O125" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="P125" s="2" t="s">
-        <v>909</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
@@ -17766,15 +17742,15 @@
       <c r="AA125" s="2"/>
       <c r="AB125" s="2"/>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" ht="16.5" spans="1:28">
       <c r="A126" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>912</v>
       </c>
       <c r="D126" s="2" t="str">
         <f t="shared" si="4"/>
@@ -17790,7 +17766,7 @@
         <v>999</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I126" s="2">
         <v>1</v>
@@ -17805,16 +17781,16 @@
         <v>0</v>
       </c>
       <c r="M126" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="O126" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="N126" s="2" t="s">
+      <c r="P126" s="2" t="s">
         <v>915</v>
-      </c>
-      <c r="O126" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="P126" s="2" t="s">
-        <v>917</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
@@ -17829,15 +17805,15 @@
       <c r="AA126" s="2"/>
       <c r="AB126" s="2"/>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" ht="16.5" spans="1:28">
       <c r="A127" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D127" s="2" t="str">
         <f t="shared" si="4"/>
@@ -17853,7 +17829,7 @@
         <v>30000</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I127" s="2">
         <v>1</v>
@@ -17868,16 +17844,16 @@
         <v>0</v>
       </c>
       <c r="M127" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="O127" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="N127" s="2" t="s">
+      <c r="P127" s="2" t="s">
         <v>922</v>
-      </c>
-      <c r="O127" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="P127" s="2" t="s">
-        <v>924</v>
       </c>
       <c r="Q127" s="2"/>
       <c r="R127" s="2"/>
@@ -17892,15 +17868,15 @@
       <c r="AA127" s="2"/>
       <c r="AB127" s="2"/>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" ht="16.5" spans="1:28">
       <c r="A128" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>925</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>927</v>
       </c>
       <c r="D128" s="2" t="str">
         <f t="shared" si="4"/>
@@ -17916,7 +17892,7 @@
         <v>99999</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="I128" s="2">
         <v>1</v>
@@ -17931,16 +17907,16 @@
         <v>0</v>
       </c>
       <c r="M128" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="O128" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="N128" s="2" t="s">
+      <c r="P128" s="2" t="s">
         <v>930</v>
-      </c>
-      <c r="O128" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="P128" s="2" t="s">
-        <v>932</v>
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
@@ -17955,15 +17931,15 @@
       <c r="AA128" s="2"/>
       <c r="AB128" s="2"/>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" ht="16.5" spans="1:28">
       <c r="A129" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D129" s="2" t="str">
         <f t="shared" si="4"/>
@@ -17979,7 +17955,7 @@
         <v>350</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="I129" s="2">
         <v>1</v>
@@ -17994,16 +17970,16 @@
         <v>1</v>
       </c>
       <c r="M129" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="P129" s="2" t="s">
         <v>936</v>
-      </c>
-      <c r="N129" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="O129" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="P129" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
@@ -18018,15 +17994,15 @@
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" ht="16.5" spans="1:28">
       <c r="A130" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D130" s="2" t="str">
         <f t="shared" si="4"/>
@@ -18042,7 +18018,7 @@
         <v>5542</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="I130" s="2">
         <v>1</v>
@@ -18057,16 +18033,16 @@
         <v>1</v>
       </c>
       <c r="M130" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="N130" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="O130" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="N130" s="2" t="s">
+      <c r="P130" s="2" t="s">
         <v>943</v>
-      </c>
-      <c r="O130" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="P130" s="2" t="s">
-        <v>945</v>
       </c>
       <c r="Q130" s="2"/>
       <c r="R130" s="2"/>
@@ -18081,15 +18057,15 @@
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" ht="16.5" spans="1:28">
       <c r="A131" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D131" s="2" t="str">
         <f t="shared" si="4"/>
@@ -18105,7 +18081,7 @@
         <v>1425</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I131" s="2">
         <v>1</v>
@@ -18120,16 +18096,16 @@
         <v>0</v>
       </c>
       <c r="M131" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="O131" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="N131" s="2" t="s">
+      <c r="P131" s="2" t="s">
         <v>950</v>
-      </c>
-      <c r="O131" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="P131" s="2" t="s">
-        <v>952</v>
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
@@ -18144,15 +18120,15 @@
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" ht="16.5" spans="1:28">
       <c r="A132" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D132" s="2" t="str">
         <f t="shared" si="4"/>
@@ -18168,7 +18144,7 @@
         <v>514</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I132" s="2">
         <v>1</v>
@@ -18183,16 +18159,16 @@
         <v>0</v>
       </c>
       <c r="M132" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="O132" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="N132" s="2" t="s">
+      <c r="P132" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="O132" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="P132" s="2" t="s">
-        <v>959</v>
       </c>
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
@@ -18207,15 +18183,15 @@
       <c r="AA132" s="2"/>
       <c r="AB132" s="2"/>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" ht="16.5" spans="1:28">
       <c r="A133" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D133" s="2" t="str">
         <f t="shared" si="4"/>
@@ -18231,7 +18207,7 @@
         <v>652</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="I133" s="2">
         <v>1</v>
@@ -18246,16 +18222,16 @@
         <v>0</v>
       </c>
       <c r="M133" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="N133" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="O133" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="N133" s="2" t="s">
+      <c r="P133" s="2" t="s">
         <v>964</v>
-      </c>
-      <c r="O133" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="P133" s="2" t="s">
-        <v>966</v>
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" s="2"/>
@@ -18270,15 +18246,15 @@
       <c r="AA133" s="2"/>
       <c r="AB133" s="2"/>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" ht="16.5" spans="1:28">
       <c r="A134" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D134" s="2" t="str">
         <f t="shared" si="4"/>
@@ -18294,7 +18270,7 @@
         <v>2</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="I134" s="2">
         <v>1</v>
@@ -18309,16 +18285,16 @@
         <v>0</v>
       </c>
       <c r="M134" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="N134" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="O134" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="N134" s="2" t="s">
+      <c r="P134" s="2" t="s">
         <v>971</v>
-      </c>
-      <c r="O134" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="P134" s="2" t="s">
-        <v>973</v>
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" s="2"/>
@@ -18333,15 +18309,15 @@
       <c r="AA134" s="2"/>
       <c r="AB134" s="2"/>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" ht="16.5" spans="1:28">
       <c r="A135" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D135" s="2" t="str">
         <f t="shared" si="4"/>
@@ -18357,7 +18333,7 @@
         <v>3429</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="I135" s="2">
         <v>1</v>
@@ -18372,16 +18348,16 @@
         <v>0</v>
       </c>
       <c r="M135" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="O135" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="N135" s="2" t="s">
+      <c r="P135" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="O135" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="P135" s="2" t="s">
-        <v>979</v>
       </c>
       <c r="Q135" s="2"/>
       <c r="R135" s="2"/>
@@ -18396,15 +18372,15 @@
       <c r="AA135" s="2"/>
       <c r="AB135" s="2"/>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" ht="16.5" spans="1:28">
       <c r="A136" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D136" s="2" t="str">
         <f t="shared" si="4"/>
@@ -18420,7 +18396,7 @@
         <v>1369</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="I136" s="2">
         <v>1</v>
@@ -18435,16 +18411,16 @@
         <v>0</v>
       </c>
       <c r="M136" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="O136" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="N136" s="2" t="s">
+      <c r="P136" s="2" t="s">
         <v>984</v>
-      </c>
-      <c r="O136" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="P136" s="2" t="s">
-        <v>986</v>
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" s="2"/>
@@ -18459,15 +18435,15 @@
       <c r="AA136" s="2"/>
       <c r="AB136" s="2"/>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" ht="16.5" spans="1:28">
       <c r="A137" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>987</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>989</v>
       </c>
       <c r="D137" s="2" t="str">
         <f t="shared" si="4"/>
@@ -18483,7 +18459,7 @@
         <v>42368</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="I137" s="2">
         <v>1</v>
@@ -18498,16 +18474,16 @@
         <v>0</v>
       </c>
       <c r="M137" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="N137" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="O137" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="N137" s="2" t="s">
+      <c r="P137" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="O137" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="P137" s="2" t="s">
-        <v>994</v>
       </c>
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
@@ -18522,15 +18498,15 @@
       <c r="AA137" s="2"/>
       <c r="AB137" s="2"/>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" ht="16.5" spans="1:28">
       <c r="A138" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D138" s="2" t="str">
         <f t="shared" si="4"/>
@@ -18546,7 +18522,7 @@
         <v>98657</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I138" s="2">
         <v>1</v>
@@ -18561,16 +18537,16 @@
         <v>0</v>
       </c>
       <c r="M138" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="O138" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="N138" s="2" t="s">
+      <c r="P138" s="2" t="s">
         <v>999</v>
-      </c>
-      <c r="O138" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="P138" s="2" t="s">
-        <v>1001</v>
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
@@ -18585,15 +18561,15 @@
       <c r="AA138" s="2"/>
       <c r="AB138" s="2"/>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" ht="16.5" spans="1:28">
       <c r="A139" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D139" s="2" t="str">
         <f t="shared" si="4"/>
@@ -18609,7 +18585,7 @@
         <v>5487</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I139" s="2">
         <v>1</v>
@@ -18624,16 +18600,16 @@
         <v>0</v>
       </c>
       <c r="M139" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P139" s="2" t="s">
         <v>1005</v>
-      </c>
-      <c r="N139" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="O139" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="P139" s="2" t="s">
-        <v>1007</v>
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
@@ -18648,15 +18624,15 @@
       <c r="AA139" s="2"/>
       <c r="AB139" s="2"/>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" ht="16.5" spans="1:28">
       <c r="A140" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D140" s="2" t="str">
         <f t="shared" si="4"/>
@@ -18672,7 +18648,7 @@
         <v>45625</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I140" s="2">
         <v>1</v>
@@ -18687,16 +18663,16 @@
         <v>0</v>
       </c>
       <c r="M140" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N140" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="O140" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="N140" s="2" t="s">
+      <c r="P140" s="2" t="s">
         <v>1012</v>
-      </c>
-      <c r="O140" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="P140" s="2" t="s">
-        <v>1014</v>
       </c>
       <c r="Q140" s="2"/>
       <c r="R140" s="2"/>
@@ -18711,15 +18687,15 @@
       <c r="AA140" s="2"/>
       <c r="AB140" s="2"/>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" ht="16.5" spans="1:28">
       <c r="A141" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D141" s="2" t="str">
         <f t="shared" si="4"/>
@@ -18735,7 +18711,7 @@
         <v>66666</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="I141" s="2">
         <v>1</v>
@@ -18750,16 +18726,16 @@
         <v>0</v>
       </c>
       <c r="M141" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N141" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="O141" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="N141" s="2" t="s">
+      <c r="P141" s="2" t="s">
         <v>1019</v>
-      </c>
-      <c r="O141" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="P141" s="2" t="s">
-        <v>1021</v>
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
@@ -18774,15 +18750,15 @@
       <c r="AA141" s="2"/>
       <c r="AB141" s="2"/>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" ht="16.5" spans="1:28">
       <c r="A142" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D142" s="2" t="str">
         <f t="shared" si="4"/>
@@ -18798,7 +18774,7 @@
         <v>456</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="I142" s="2">
         <v>1</v>
@@ -18813,16 +18789,16 @@
         <v>0</v>
       </c>
       <c r="M142" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O142" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="N142" s="2" t="s">
+      <c r="P142" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="O142" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="P142" s="2" t="s">
-        <v>1028</v>
       </c>
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
@@ -18837,15 +18813,15 @@
       <c r="AA142" s="2"/>
       <c r="AB142" s="2"/>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" ht="16.5" spans="1:28">
       <c r="A143" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D143" s="2" t="str">
         <f t="shared" si="4"/>
@@ -18861,7 +18837,7 @@
         <v>100</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="I143" s="2">
         <v>1</v>
@@ -18876,16 +18852,16 @@
         <v>0</v>
       </c>
       <c r="M143" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N143" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="O143" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="N143" s="2" t="s">
+      <c r="P143" s="2" t="s">
         <v>1033</v>
-      </c>
-      <c r="O143" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="P143" s="2" t="s">
-        <v>1035</v>
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
@@ -18900,15 +18876,15 @@
       <c r="AA143" s="2"/>
       <c r="AB143" s="2"/>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" ht="16.5" spans="1:28">
       <c r="A144" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>1036</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>1038</v>
       </c>
       <c r="D144" s="2" t="str">
         <f t="shared" si="4"/>
@@ -18924,7 +18900,7 @@
         <v>0</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="I144" s="2">
         <v>0</v>
@@ -18939,16 +18915,16 @@
         <v>0</v>
       </c>
       <c r="M144" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="O144" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="N144" s="2" t="s">
+      <c r="P144" s="2" t="s">
         <v>1041</v>
-      </c>
-      <c r="O144" s="2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="P144" s="2" t="s">
-        <v>1043</v>
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
@@ -18963,15 +18939,15 @@
       <c r="AA144" s="2"/>
       <c r="AB144" s="2"/>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" ht="16.5" spans="1:28">
       <c r="A145" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>1044</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>1046</v>
       </c>
       <c r="D145" s="2" t="str">
         <f t="shared" si="4"/>
@@ -18987,7 +18963,7 @@
         <v>1000</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="I145" s="2">
         <v>1</v>
@@ -19002,16 +18978,16 @@
         <v>0</v>
       </c>
       <c r="M145" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="O145" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="N145" s="2" t="s">
+      <c r="P145" s="2" t="s">
         <v>1049</v>
-      </c>
-      <c r="O145" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="P145" s="2" t="s">
-        <v>1051</v>
       </c>
       <c r="Q145" s="2"/>
       <c r="R145" s="2"/>
@@ -19026,15 +19002,15 @@
       <c r="AA145" s="2"/>
       <c r="AB145" s="2"/>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" ht="16.5" spans="1:28">
       <c r="A146" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D146" s="2" t="str">
         <f t="shared" si="4"/>
@@ -19050,7 +19026,7 @@
         <v>750</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="I146" s="2">
         <v>1</v>
@@ -19065,16 +19041,16 @@
         <v>0</v>
       </c>
       <c r="M146" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N146" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="O146" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="N146" s="2" t="s">
+      <c r="P146" s="2" t="s">
         <v>1056</v>
-      </c>
-      <c r="O146" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="P146" s="2" t="s">
-        <v>1058</v>
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
@@ -19089,15 +19065,15 @@
       <c r="AA146" s="2"/>
       <c r="AB146" s="2"/>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" ht="16.5" spans="1:28">
       <c r="A147" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D147" s="2" t="str">
         <f t="shared" si="4"/>
@@ -19113,7 +19089,7 @@
         <v>20</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="I147" s="2">
         <v>1</v>
@@ -19128,16 +19104,16 @@
         <v>0</v>
       </c>
       <c r="M147" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="N147" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="O147" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="N147" s="2" t="s">
+      <c r="P147" s="2" t="s">
         <v>1063</v>
-      </c>
-      <c r="O147" s="2" t="s">
-        <v>1064</v>
-      </c>
-      <c r="P147" s="2" t="s">
-        <v>1065</v>
       </c>
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
@@ -19152,15 +19128,15 @@
       <c r="AA147" s="2"/>
       <c r="AB147" s="2"/>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" ht="16.5" spans="1:28">
       <c r="A148" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>1066</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>1068</v>
       </c>
       <c r="D148" s="2" t="str">
         <f t="shared" si="4"/>
@@ -19176,7 +19152,7 @@
         <v>1000</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="I148" s="2">
         <v>1</v>
@@ -19191,16 +19167,16 @@
         <v>0</v>
       </c>
       <c r="M148" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N148" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="O148" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="N148" s="2" t="s">
+      <c r="P148" s="2" t="s">
         <v>1070</v>
-      </c>
-      <c r="O148" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="P148" s="2" t="s">
-        <v>1072</v>
       </c>
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
@@ -19215,15 +19191,15 @@
       <c r="AA148" s="2"/>
       <c r="AB148" s="2"/>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" ht="16.5" spans="1:28">
       <c r="A149" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>1073</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>1075</v>
       </c>
       <c r="D149" s="2" t="str">
         <f t="shared" si="4"/>
@@ -19239,7 +19215,7 @@
         <v>2000</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="I149" s="2">
         <v>1</v>
@@ -19254,16 +19230,16 @@
         <v>0</v>
       </c>
       <c r="M149" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N149" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="O149" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="N149" s="2" t="s">
+      <c r="P149" s="2" t="s">
         <v>1078</v>
-      </c>
-      <c r="O149" s="2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="P149" s="2" t="s">
-        <v>1080</v>
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
@@ -19280,13 +19256,13 @@
     </row>
     <row r="150" ht="18.75" customHeight="1" spans="1:28">
       <c r="A150" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>1081</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>1083</v>
       </c>
       <c r="D150" s="2" t="str">
         <f t="shared" si="4"/>
@@ -19302,7 +19278,7 @@
         <v>996</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="I150" s="2">
         <v>1</v>
@@ -19317,16 +19293,16 @@
         <v>0</v>
       </c>
       <c r="M150" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O150" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="N150" s="2" t="s">
+      <c r="P150" s="2" t="s">
         <v>1086</v>
-      </c>
-      <c r="O150" s="2" t="s">
-        <v>1087</v>
-      </c>
-      <c r="P150" s="2" t="s">
-        <v>1088</v>
       </c>
       <c r="Q150" s="2"/>
       <c r="R150" s="2"/>
@@ -19343,13 +19319,13 @@
     </row>
     <row r="151" ht="31.5" customHeight="1" spans="1:28">
       <c r="A151" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D151" s="2" t="str">
         <f t="shared" si="4"/>
@@ -19365,7 +19341,7 @@
         <v>8529</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I151" s="2">
         <v>1</v>
@@ -19380,16 +19356,16 @@
         <v>0</v>
       </c>
       <c r="M151" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="N151" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="O151" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="N151" s="2" t="s">
+      <c r="P151" s="2" t="s">
         <v>1093</v>
-      </c>
-      <c r="O151" s="2" t="s">
-        <v>1094</v>
-      </c>
-      <c r="P151" s="2" t="s">
-        <v>1095</v>
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
@@ -19410,6 +19386,10 @@
     <hyperlink ref="N41" r:id="rId2" display="https://img12.360buyimg.com/n1/jfs/t1/145407/13/2367/259868/5f043834E435edc68/7678ef51578c59dc.jpg"/>
     <hyperlink ref="O41" r:id="rId3" display="https://img12.360buyimg.com/n1/jfs/t1/127731/26/6514/192356/5f043835E8d848c84/d82efbe08c1f1f73.jpg"/>
     <hyperlink ref="P41" r:id="rId4" display="https://img12.360buyimg.com/n1/jfs/t1/128810/7/6541/215470/5f043835E6dd9c123/773dbf3262a37b02.jpg"/>
+    <hyperlink ref="M6" r:id="rId5" display="https://t15.baidu.com/it/u=3677393265,307861059&amp;fm=224&amp;app=112&amp;size=h200&amp;n=0&amp;f=JPEG&amp;fmt=auto?sec=1685466000&amp;t=cc3bc7325327ee7ce95198dcbe9777aa"/>
+    <hyperlink ref="N6" r:id="rId5" display="https://t15.baidu.com/it/u=3677393265,307861059&amp;fm=224&amp;app=112&amp;size=h200&amp;n=0&amp;f=JPEG&amp;fmt=auto?sec=1685466000&amp;t=cc3bc7325327ee7ce95198dcbe9777aa"/>
+    <hyperlink ref="O6" r:id="rId5" display="https://t15.baidu.com/it/u=3677393265,307861059&amp;fm=224&amp;app=112&amp;size=h200&amp;n=0&amp;f=JPEG&amp;fmt=auto?sec=1685466000&amp;t=cc3bc7325327ee7ce95198dcbe9777aa"/>
+    <hyperlink ref="P6" r:id="rId5" display="https://t15.baidu.com/it/u=3677393265,307861059&amp;fm=224&amp;app=112&amp;size=h200&amp;n=0&amp;f=JPEG&amp;fmt=auto?sec=1685466000&amp;t=cc3bc7325327ee7ce95198dcbe9777aa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -19417,7 +19397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -19425,7 +19405,7 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -19433,7 +19413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -19441,7 +19421,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -19449,7 +19429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -19457,7 +19437,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -19465,7 +19445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -19473,7 +19453,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -19481,7 +19461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -19489,7 +19469,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -19497,7 +19477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -19505,7 +19485,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -19513,7 +19493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -19521,7 +19501,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -19529,7 +19509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -19537,7 +19517,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -19545,7 +19525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -19553,7 +19533,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
